--- a/backend-contact-form/contacts.xlsx
+++ b/backend-contact-form/contacts.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -613,9 +613,285 @@
         <v>hi i waant to meet u</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>AEDAKULA</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v>rithvikanirvesh2909@gmail.com</v>
+      </c>
+      <c r="E10" t="str">
+        <v>8125577708</v>
+      </c>
+      <c r="F10" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>a.bobby</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v>beb</v>
+      </c>
+      <c r="D11" t="str">
+        <v>rithvikanirvesh2909@gmail.com</v>
+      </c>
+      <c r="E11" t="str">
+        <v>8125577708</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Managed Services</v>
+      </c>
+      <c r="G11" t="str">
+        <v>gggg</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>bhanu</v>
+      </c>
+      <c r="B12" t="str">
+        <v>annna</v>
+      </c>
+      <c r="C12" t="str">
+        <v>beb</v>
+      </c>
+      <c r="D12" t="str">
+        <v>rithvikanirvesh2909@gmail.com</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>Mobile Development</v>
+      </c>
+      <c r="G12" t="str">
+        <v>jjjjj</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Mouli</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v>mlrit</v>
+      </c>
+      <c r="D13" t="str">
+        <v>rithvikanirvesh0416@gmail.com</v>
+      </c>
+      <c r="E13" t="str">
+        <v>9876543219</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Mobile Development</v>
+      </c>
+      <c r="G13" t="str">
+        <v>haa</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>priya</v>
+      </c>
+      <c r="B14" t="str">
+        <v>chilukiri</v>
+      </c>
+      <c r="C14" t="str">
+        <v>NGO</v>
+      </c>
+      <c r="D14" t="str">
+        <v>priya.chilukuri1122@gmail.com</v>
+      </c>
+      <c r="E14" t="str">
+        <v>9550668312</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Cloud Services</v>
+      </c>
+      <c r="G14" t="str">
+        <v>want an ngo website build for me</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>AEDAKULA</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v>rithvikanirvesh2909@gmail.com</v>
+      </c>
+      <c r="E15" t="str">
+        <v>08125577708</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>AEDAKULA</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>rithvikanirvesh2909@gmail.com</v>
+      </c>
+      <c r="E16" t="str">
+        <v>08125577708</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>AEDAKULA</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>rithvikanirvesh2909@gmail.com</v>
+      </c>
+      <c r="E17" t="str">
+        <v>08125577708</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>AEDAKULA</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>rithvikanirvesh2909@gmail.com</v>
+      </c>
+      <c r="E18" t="str">
+        <v>08125577708</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend-contact-form/contacts.xlsx
+++ b/backend-contact-form/contacts.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -889,9 +889,240 @@
         <v/>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B22" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D22" t="str">
+        <v>ruchitareddy216@gmail.com</v>
+      </c>
+      <c r="E22" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F22" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>lokesh</v>
+      </c>
+      <c r="B23" t="str">
+        <v>raju</v>
+      </c>
+      <c r="C23" t="str">
+        <v>bigclasses</v>
+      </c>
+      <c r="D23" t="str">
+        <v>lokeswaredify@gmail.com</v>
+      </c>
+      <c r="E23" t="str">
+        <v>8374705188</v>
+      </c>
+      <c r="F23" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>uma</v>
+      </c>
+      <c r="B24" t="str">
+        <v>devu</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D24" t="str">
+        <v>umadevitotakura9@gmail.com</v>
+      </c>
+      <c r="E24" t="str">
+        <v>9346389316</v>
+      </c>
+      <c r="F24" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G24" t="str" xml:space="preserve">
+        <v xml:space="preserve">i love uma
+</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B25" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D25" t="str">
+        <v>ruchitareddy216@gmail.com</v>
+      </c>
+      <c r="E25" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B26" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D26" t="str">
+        <v>ruchitareddy216@gmail.com</v>
+      </c>
+      <c r="E26" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F26" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B27" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D27" t="str">
+        <v>ruchitareddy216@gmail.com</v>
+      </c>
+      <c r="E27" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F27" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B28" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D28" t="str">
+        <v>glokesh8374@gmail.com</v>
+      </c>
+      <c r="E28" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F28" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B29" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D29" t="str">
+        <v>glokesh8374@gmail.com</v>
+      </c>
+      <c r="E29" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F29" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B30" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D30" t="str">
+        <v>glokesh8374@gmail.com</v>
+      </c>
+      <c r="E30" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B31" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D31" t="str">
+        <v>glokesh8374@gmail.com</v>
+      </c>
+      <c r="E31" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend-contact-form/contacts.xlsx
+++ b/backend-contact-form/contacts.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1120,9 +1120,78 @@
         <v/>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Reddy</v>
+      </c>
+      <c r="C32" t="str">
+        <v>sdfsdf</v>
+      </c>
+      <c r="D32" t="str">
+        <v>ruchitareddy216@gmail.com</v>
+      </c>
+      <c r="E32" t="str">
+        <v>+91 74999-24664</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B33" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D33" t="str">
+        <v>ruchitareddy216@gmail.com</v>
+      </c>
+      <c r="E33" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F33" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B34" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D34" t="str">
+        <v>ruchitareddy216@gmail.com</v>
+      </c>
+      <c r="E34" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F34" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend-contact-form/contacts.xlsx
+++ b/backend-contact-form/contacts.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1189,9 +1189,147 @@
         <v/>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B35" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D35" t="str">
+        <v>ruchitareddy216@gmail.com</v>
+      </c>
+      <c r="E35" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>John</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Doe</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Test Company</v>
+      </c>
+      <c r="D36" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+      <c r="E36" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="F36" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G36" t="str">
+        <v>This is a test message from localhost</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B37" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D37" t="str">
+        <v>ruchitareddy216@gmail.com</v>
+      </c>
+      <c r="E37" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B38" t="str">
+        <v>adsdsdf</v>
+      </c>
+      <c r="C38" t="str">
+        <v>sdafdfsdfasdf</v>
+      </c>
+      <c r="D38" t="str">
+        <v>sdfasdf@gmail.com</v>
+      </c>
+      <c r="E38" t="str">
+        <v>sdfsdfads</v>
+      </c>
+      <c r="F38" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G38" t="str">
+        <v>sdfasdf</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B39" t="str">
+        <v>adsdsdf</v>
+      </c>
+      <c r="C39" t="str">
+        <v>sdafdfsdfasdf</v>
+      </c>
+      <c r="D39" t="str">
+        <v>sdfasdf@gmail.com</v>
+      </c>
+      <c r="E39" t="str">
+        <v>sdfsdfads</v>
+      </c>
+      <c r="F39" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G39" t="str">
+        <v>sdfasdf</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Rachana</v>
+      </c>
+      <c r="B40" t="str">
+        <v>singadwar</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Sarojini Naidu Vanita Maha Vidyalaya</v>
+      </c>
+      <c r="D40" t="str">
+        <v>ruchitareddy216@gmail.com</v>
+      </c>
+      <c r="E40" t="str">
+        <v>07499924664</v>
+      </c>
+      <c r="F40" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G40" t="str">
+        <v>fgtsfgwjhgzr</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend-contact-form/contacts.xlsx
+++ b/backend-contact-form/contacts.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1327,9 +1327,32 @@
         <v>fgtsfgwjhgzr</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>AEDAKULA</v>
+      </c>
+      <c r="B41" t="str">
+        <v>ANIRVESH</v>
+      </c>
+      <c r="C41" t="str">
+        <v>my homes</v>
+      </c>
+      <c r="D41" t="str">
+        <v>rithvikanirvesh2909@gmail.com</v>
+      </c>
+      <c r="E41" t="str">
+        <v>08125577708</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Managed Services</v>
+      </c>
+      <c r="G41" t="str">
+        <v>ds</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G41"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend-contact-form/contacts.xlsx
+++ b/backend-contact-form/contacts.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1350,9 +1350,32 @@
         <v>ds</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>AEDAKULA</v>
+      </c>
+      <c r="B42" t="str">
+        <v>ANIRVESH</v>
+      </c>
+      <c r="C42" t="str">
+        <v>My property</v>
+      </c>
+      <c r="D42" t="str">
+        <v>rithvikanirvesh2909@gmail.com</v>
+      </c>
+      <c r="E42" t="str">
+        <v>08125577708</v>
+      </c>
+      <c r="F42" t="str">
+        <v>IT Consulting</v>
+      </c>
+      <c r="G42" t="str">
+        <v>sadas</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G42"/>
   </ignoredErrors>
 </worksheet>
 </file>